--- a/src/data/e_katalog_prices_data.xlsx
+++ b/src/data/e_katalog_prices_data.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>min_price</t>
-  </si>
-  <si>
-    <t>max_price</t>
-  </si>
-  <si>
-    <t>expected_message</t>
+    <t>minPrice</t>
+  </si>
+  <si>
+    <t>maxPrice</t>
+  </si>
+  <si>
+    <t>expectedMessage</t>
   </si>
   <si>
     <t>от 5000 до 9999 грн.</t>
